--- a/output/fit_clients/fit_round_231.xlsx
+++ b/output/fit_clients/fit_round_231.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2134282500.311562</v>
+        <v>1786871823.043587</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1038325257514167</v>
+        <v>0.07333480347691194</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03046452999795645</v>
+        <v>0.02939220502975898</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1067141263.842983</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1748812840.866658</v>
+        <v>2079320959.765408</v>
       </c>
       <c r="F3" t="n">
-        <v>0.115555237334192</v>
+        <v>0.1355581269714601</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04003906301365725</v>
+        <v>0.0430606518427285</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>874406421.5774666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5239833051.30871</v>
+        <v>4849125747.419247</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1094937698385176</v>
+        <v>0.1598294841644628</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03385939681909196</v>
+        <v>0.02877372416032839</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>83</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2619916627.649114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3289734076.039483</v>
+        <v>3339907784.260088</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07356761243419102</v>
+        <v>0.08311290769893953</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04923061118380437</v>
+        <v>0.04710029166909354</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>89</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1644867088.71274</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1873553772.38666</v>
+        <v>2128154781.588903</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1224322652272863</v>
+        <v>0.1077006584541243</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05098877677780136</v>
+        <v>0.05472185666240358</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>39</v>
-      </c>
-      <c r="J6" t="n">
-        <v>936776929.4610857</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2681671701.631856</v>
+        <v>2985844391.509072</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07458555545119928</v>
+        <v>0.09511598003287806</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04014271135022439</v>
+        <v>0.04081057303690335</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>71</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1340835846.390431</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2949023876.405541</v>
+        <v>3761444246.043164</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2176796094923254</v>
+        <v>0.1877369773406707</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02074724098702303</v>
+        <v>0.03137688498911139</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>74</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1474511990.49807</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1636551237.544605</v>
+        <v>1402848600.145835</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1708487706360708</v>
+        <v>0.1546082208525476</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03036806634750012</v>
+        <v>0.02747973789680123</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>818275695.7976969</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5655217921.215711</v>
+        <v>5304204948.058586</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1762970767579919</v>
+        <v>0.216969538951205</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03837824613520346</v>
+        <v>0.03544778434557142</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>97</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2827609110.628748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3683476244.403376</v>
+        <v>3553133423.175653</v>
       </c>
       <c r="F11" t="n">
-        <v>0.14335786234261</v>
+        <v>0.142261561243574</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04610767046654999</v>
+        <v>0.03982917802741357</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>96</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1841738112.839238</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2896534961.952623</v>
+        <v>2814979506.861621</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1470377161947415</v>
+        <v>0.1693756806750859</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03397501630975495</v>
+        <v>0.03931878621532008</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>80</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1448267489.512865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3555348576.739763</v>
+        <v>3492890472.621538</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07839629222520812</v>
+        <v>0.09438977512746596</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02102899783119805</v>
+        <v>0.02397846828917043</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>77</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1777674365.875093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3477847880.138134</v>
+        <v>2792838764.194099</v>
       </c>
       <c r="F14" t="n">
-        <v>0.140232369297493</v>
+        <v>0.1440245927662431</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03806354882367503</v>
+        <v>0.03747732112990093</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>75</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1738923939.886485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1643215136.826863</v>
+        <v>1470216865.699662</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07516817061766223</v>
+        <v>0.1058499404815121</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0378427832421572</v>
+        <v>0.04303583101236404</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>821607686.3741205</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2789355543.369189</v>
+        <v>2440273707.672854</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09716821719764523</v>
+        <v>0.1024393443293043</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03662381347838699</v>
+        <v>0.03673253037731771</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>41</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1394677776.637873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4922425510.993441</v>
+        <v>5287556624.223556</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1212517553320179</v>
+        <v>0.1597628295247418</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04351167623629706</v>
+        <v>0.03209288802793388</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>67</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2461212744.510255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3436756739.901577</v>
+        <v>3116593722.421708</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1454029172813479</v>
+        <v>0.1486046745682397</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02499230102233312</v>
+        <v>0.02339330828116997</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>75</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1718378368.578215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1103783054.101489</v>
+        <v>1224334369.417849</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1507576182543139</v>
+        <v>0.1674056641613687</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02165432668375707</v>
+        <v>0.02514565446852331</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>551891581.5293016</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2145600998.283824</v>
+        <v>2579293589.039795</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1252762813393461</v>
+        <v>0.1196134996686829</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03127146000224332</v>
+        <v>0.02674995901189251</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>35</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1072800509.973646</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2216995101.473414</v>
+        <v>1666559917.411472</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08121515457900022</v>
+        <v>0.07352119823483302</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03828593789585729</v>
+        <v>0.03837351133881336</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>18</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1108497565.941256</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2849154495.330492</v>
+        <v>3998535760.729805</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1446356054388998</v>
+        <v>0.09465973516305301</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05126317306873316</v>
+        <v>0.03989883898203586</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>66</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1424577318.220726</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1347686937.390858</v>
+        <v>1283217307.196685</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1818026950742364</v>
+        <v>0.1266572608292662</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04922122141428355</v>
+        <v>0.05203932073354985</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>673843480.2775085</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3553804954.305221</v>
+        <v>3127319071.723993</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1402306401906871</v>
+        <v>0.1384930238889788</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02391466846017754</v>
+        <v>0.03231911609575412</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>67</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1776902475.14649</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1286354444.636528</v>
+        <v>1104105410.924186</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1230309283562359</v>
+        <v>0.09974866499777624</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02831495054849207</v>
+        <v>0.02910171800620875</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>643177220.4044067</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1200056965.339854</v>
+        <v>1456627394.366043</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1218223030461057</v>
+        <v>0.0843892782256469</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03595945967842842</v>
+        <v>0.03259862397875325</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>600028503.7604336</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3314040570.100759</v>
+        <v>3229578434.488746</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1398822267122101</v>
+        <v>0.1049244518859157</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02633546753916326</v>
+        <v>0.01719648958407764</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1657020329.24278</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2555135994.396046</v>
+        <v>3346428775.568403</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1493263122708496</v>
+        <v>0.1176757160868554</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05014649740257206</v>
+        <v>0.0388685011837017</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>74</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1277567969.797891</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4830060294.933642</v>
+        <v>4292740342.352616</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1210330931903886</v>
+        <v>0.1126474235303281</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04177698357092782</v>
+        <v>0.04470438972058655</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>103</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2415030106.771968</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2220043916.990539</v>
+        <v>1903467108.521762</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1033743232840836</v>
+        <v>0.102796285687086</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02808835480894974</v>
+        <v>0.03266484577831846</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1110022020.977133</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1460877796.688952</v>
+        <v>1479689715.623672</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09197226324704934</v>
+        <v>0.07340672772603206</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04079056206167088</v>
+        <v>0.05250996484520537</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>730438788.3777707</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1388811073.884988</v>
+        <v>1675725688.714751</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09710320027494516</v>
+        <v>0.09620819332135547</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02388117084640058</v>
+        <v>0.02778736446906141</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>694405582.2263349</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2582430698.86757</v>
+        <v>2810801395.021751</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1429152793008109</v>
+        <v>0.1534839837214509</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04012688893926986</v>
+        <v>0.05228245007556094</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>68</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1291215380.629115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1090830031.138618</v>
+        <v>1393406562.317554</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08286447460796367</v>
+        <v>0.0983738997388313</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02767466860151308</v>
+        <v>0.01773458529569798</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>545415038.4884604</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>995455182.8044441</v>
+        <v>1344131300.493653</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1145591376278048</v>
+        <v>0.07206461174899088</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03857151842549825</v>
+        <v>0.03776836028947367</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>497727610.9679885</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2772071091.408379</v>
+        <v>2216743736.755481</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1309415521771441</v>
+        <v>0.1274339038520049</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02594786420531119</v>
+        <v>0.02386650947248792</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>58</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1386035545.851475</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2838153358.955858</v>
+        <v>2336522883.825457</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09843397323984458</v>
+        <v>0.07270318078083124</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0397055154071846</v>
+        <v>0.03682976534127702</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>60</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1419076822.046877</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1393208415.538766</v>
+        <v>2142085191.904107</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08919964021702582</v>
+        <v>0.07491859603302266</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03216632039204886</v>
+        <v>0.02945494848413581</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>696604272.098439</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1468019114.803036</v>
+        <v>1538167029.657355</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1843371018911465</v>
+        <v>0.1517204328682553</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02773051101642772</v>
+        <v>0.01998280447459034</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>734009632.7086345</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1598771368.375305</v>
+        <v>1768847718.521078</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1310330069224997</v>
+        <v>0.1041750579275313</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04314822778938816</v>
+        <v>0.03926958207004584</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>799385625.6538783</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2300282449.944262</v>
+        <v>2761722381.589512</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1484298443012395</v>
+        <v>0.1332057223087775</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04136329819348324</v>
+        <v>0.04233531240922703</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>55</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1150141269.768939</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3338984480.204328</v>
+        <v>4359349206.177254</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1222222115319564</v>
+        <v>0.1185231216156053</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03265391777467261</v>
+        <v>0.03248769330652007</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1669492223.859042</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2191064578.135246</v>
+        <v>1951175840.949514</v>
       </c>
       <c r="F43" t="n">
-        <v>0.123613305710645</v>
+        <v>0.1464105649733708</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01776000205580831</v>
+        <v>0.01934966799032469</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>81</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1095532368.767374</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1658565048.82166</v>
+        <v>1895398536.956766</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0665511055291703</v>
+        <v>0.07511640632093369</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03028912789776015</v>
+        <v>0.02255318165493697</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>829282562.6111472</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2241967878.330875</v>
+        <v>1598161913.603786</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1836093973055289</v>
+        <v>0.1694628934507194</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05388896442224565</v>
+        <v>0.0421363159438194</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1120983954.382275</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3615461562.46654</v>
+        <v>4530706809.237394</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1690034799547859</v>
+        <v>0.1190239355705084</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05600184201658022</v>
+        <v>0.04043287212113523</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>82</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1807730728.750066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4179689234.772657</v>
+        <v>3671490391.940391</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1384745284162804</v>
+        <v>0.1768606780165181</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04489570139914831</v>
+        <v>0.03787287717956069</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>62</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2089844626.673406</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4295386545.646948</v>
+        <v>3745254168.701664</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09875829551378412</v>
+        <v>0.08043610404769451</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02851796998405809</v>
+        <v>0.03632645140702203</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>75</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2147693290.000902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1962346866.333723</v>
+        <v>1304206008.974396</v>
       </c>
       <c r="F49" t="n">
-        <v>0.184131615501448</v>
+        <v>0.1419533925561412</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02868180166371438</v>
+        <v>0.02717977064533338</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>981173393.2964528</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2929515616.642763</v>
+        <v>2933437732.130496</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1742016793205193</v>
+        <v>0.1572610674090798</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04336450519587334</v>
+        <v>0.03429893574862671</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>79</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1464757873.143346</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1505145545.023169</v>
+        <v>1310057259.253831</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1194989909230658</v>
+        <v>0.1807063236920435</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04027674659477658</v>
+        <v>0.04038588602881227</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>752572774.5891382</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3374198976.169967</v>
+        <v>4211717084.752224</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1376633954816571</v>
+        <v>0.1117595884619634</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04797067445149715</v>
+        <v>0.05438949918964758</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>95</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1687099581.384147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2426719793.964466</v>
+        <v>2789991255.324374</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1527322765859224</v>
+        <v>0.1488934130324174</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02276886755080921</v>
+        <v>0.0220301836750978</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>66</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1213359968.950617</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3870133792.943488</v>
+        <v>3561693928.978693</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1607251420493633</v>
+        <v>0.1361053955525858</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04038510630880755</v>
+        <v>0.0461434267262306</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>75</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1935066950.340704</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3324854780.473658</v>
+        <v>3274678808.322769</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2109068381330502</v>
+        <v>0.203172580846035</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02114138291512798</v>
+        <v>0.02399184945718035</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1662427335.324003</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1337609187.798462</v>
+        <v>1754438273.802763</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1597986752911077</v>
+        <v>0.106832473167589</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04584650055035901</v>
+        <v>0.0403497763958513</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>668804660.2174717</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3612807098.871893</v>
+        <v>2764054401.496748</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1435013518277291</v>
+        <v>0.1845732944621606</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01985029129261046</v>
+        <v>0.02211365910120552</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>74</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1806403605.285939</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1652139864.001402</v>
+        <v>1617067985.362997</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1982099048481669</v>
+        <v>0.1602755516537235</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02618159989802862</v>
+        <v>0.03048955885689272</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>826069949.2372847</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4469308188.478042</v>
+        <v>4981806607.103111</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08846991334433001</v>
+        <v>0.08162011100768557</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04200427384873747</v>
+        <v>0.04745561035733771</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>64</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2234654047.536091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2576150386.075862</v>
+        <v>2447653316.904114</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1844538255685025</v>
+        <v>0.1791199999421186</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02880269551861616</v>
+        <v>0.03001881418129553</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>72</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1288075218.914915</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2913562765.067866</v>
+        <v>3003891196.090481</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1635498526097051</v>
+        <v>0.165866618794651</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02855272972064509</v>
+        <v>0.02152702520134027</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>80</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1456781371.144225</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1902678136.741308</v>
+        <v>1490033877.152613</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1830603883161069</v>
+        <v>0.1525348656505212</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04639450841492793</v>
+        <v>0.04452050933440874</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>951339111.7964143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5190072644.140771</v>
+        <v>4007067043.186582</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1024695696953773</v>
+        <v>0.07369642327901622</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03393303543736223</v>
+        <v>0.04656668992445528</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>66</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2595036331.331545</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5138400421.821798</v>
+        <v>3721067612.144463</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1450800995769574</v>
+        <v>0.1543863600959806</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02649929621162143</v>
+        <v>0.02325224518580989</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>72</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2569200326.834095</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5694121432.724442</v>
+        <v>5142773488.124011</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1090226202207164</v>
+        <v>0.1362616588410097</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02741136988723029</v>
+        <v>0.02399060579506332</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>84</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2847060633.845984</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3816311765.72683</v>
+        <v>3771140687.89575</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1223840578849178</v>
+        <v>0.1535925791135219</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03872090113028909</v>
+        <v>0.05064387177336654</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>68</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1908155846.560994</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2822865536.244045</v>
+        <v>2825004213.272195</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09548195856693834</v>
+        <v>0.08415736687964082</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04266365219996895</v>
+        <v>0.03564685672680135</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>74</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1411432801.337891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4503338560.46973</v>
+        <v>5233216462.359483</v>
       </c>
       <c r="F68" t="n">
-        <v>0.138400708471316</v>
+        <v>0.1277249961735057</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04503657213200393</v>
+        <v>0.03893664627289461</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>77</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2251669306.515856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1543022120.215299</v>
+        <v>1743075645.227548</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1785902758861765</v>
+        <v>0.1735454154365122</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05595049810752376</v>
+        <v>0.05558330098156125</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>771511005.9956726</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2827405777.276077</v>
+        <v>2881934197.696445</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08439336429511402</v>
+        <v>0.09709179478795621</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03735369872991619</v>
+        <v>0.04201034573748936</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>65</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1413702854.451456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4655367084.981908</v>
+        <v>5380805842.657976</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1373117368729328</v>
+        <v>0.1376810471791962</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03012562175041141</v>
+        <v>0.0293887620386432</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>85</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2327683622.431683</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2060885069.063314</v>
+        <v>1656193105.892016</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06989718302004415</v>
+        <v>0.08877656357823163</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04646125626365469</v>
+        <v>0.04916207083591655</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1030442471.041117</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3413219606.06748</v>
+        <v>2196297586.405037</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08621633971129776</v>
+        <v>0.0777645278470394</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04163821520772115</v>
+        <v>0.04114582732185605</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>91</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1706609761.173172</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3318576663.311355</v>
+        <v>2825324801.555217</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1475684340289849</v>
+        <v>0.1270631165948003</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02736664585219107</v>
+        <v>0.02737451557295207</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>79</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1659288369.512964</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1850316254.074396</v>
+        <v>1649075506.565794</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1481772788417543</v>
+        <v>0.1313639922603842</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03081613035785463</v>
+        <v>0.03663560055059973</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>925158105.3029915</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3399285073.519369</v>
+        <v>3237756325.250981</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08508457310002379</v>
+        <v>0.1075752334076711</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02206288625907941</v>
+        <v>0.0311208409511493</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1699642496.291917</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1673972343.293639</v>
+        <v>2284565443.808367</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1649073283456435</v>
+        <v>0.171303607761717</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02619604302860603</v>
+        <v>0.02707884908004001</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>836986185.0422533</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4534408388.672016</v>
+        <v>4073522963.842062</v>
       </c>
       <c r="F78" t="n">
-        <v>0.127237537293319</v>
+        <v>0.09010726530956523</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03600530341086693</v>
+        <v>0.05082750250971504</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>80</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2267204121.783607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1427161296.93666</v>
+        <v>1207964377.682489</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1135885267199645</v>
+        <v>0.1666612391703567</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03012034340968803</v>
+        <v>0.03618992851761189</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>713580669.8923794</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4639249952.073179</v>
+        <v>4606666811.236863</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08881391421280284</v>
+        <v>0.07121283683151543</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0272806942720395</v>
+        <v>0.03604427230026013</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>48</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2319625007.288014</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4295664209.355549</v>
+        <v>4943935748.687545</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08533779387889506</v>
+        <v>0.1121184402903047</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02646257552597644</v>
+        <v>0.02453806159778701</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>55</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2147832078.851121</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5343687949.861176</v>
+        <v>3708565381.036921</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1569251169081547</v>
+        <v>0.1868485880128171</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01807217382039105</v>
+        <v>0.02692291663603687</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>86</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2671843939.700656</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1952203995.988719</v>
+        <v>2461752409.459525</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1473729851926165</v>
+        <v>0.1085079702253092</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04331878868193378</v>
+        <v>0.03797007505572207</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>976101977.3769641</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2260093133.195102</v>
+        <v>2554167291.914054</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09484055474249183</v>
+        <v>0.07435828875926913</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05230522284589176</v>
+        <v>0.03708582083044337</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1130046533.48002</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3681300602.686622</v>
+        <v>2914623980.064275</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1843562061898192</v>
+        <v>0.1625702575211517</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03564000705125892</v>
+        <v>0.03503280087004009</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>87</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1840650436.696996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2396081214.426341</v>
+        <v>2070640460.33245</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1358674766151522</v>
+        <v>0.1078659185042216</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0168415524068974</v>
+        <v>0.01943158605225069</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>29</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1198040689.884398</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1484117860.800235</v>
+        <v>1232869075.565654</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1575674235130657</v>
+        <v>0.1291418625885753</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02687333268553879</v>
+        <v>0.03400753151869149</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>742059058.787388</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2337215831.569565</v>
+        <v>2888673630.096028</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1595112059091542</v>
+        <v>0.169830953989116</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0340639547672462</v>
+        <v>0.03921211886184329</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>91</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1168607880.717716</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2637715414.177984</v>
+        <v>3188320086.022043</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1371896743951241</v>
+        <v>0.158596438849874</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03050137028276497</v>
+        <v>0.04090943039140148</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>79</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1318857771.754456</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1764568164.127873</v>
+        <v>1883919045.627328</v>
       </c>
       <c r="F90" t="n">
-        <v>0.107509656008109</v>
+        <v>0.1179013787424972</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03787249583570294</v>
+        <v>0.05293598550001748</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>882284109.1898565</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2065138284.35451</v>
+        <v>1669611361.533539</v>
       </c>
       <c r="F91" t="n">
-        <v>0.153208933056632</v>
+        <v>0.1688096911812397</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05201964951022855</v>
+        <v>0.05843423391389815</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1032569105.72999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2297111248.178217</v>
+        <v>2334558261.35321</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1053498259244567</v>
+        <v>0.0845502538143864</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03890386465294048</v>
+        <v>0.0305695258700016</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>58</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1148555592.682634</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4516874011.166866</v>
+        <v>3035699130.988768</v>
       </c>
       <c r="F93" t="n">
-        <v>0.134960238086219</v>
+        <v>0.107642814323079</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0394573147034845</v>
+        <v>0.03895037086516757</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>71</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2258436972.779648</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2165580467.502303</v>
+        <v>1760115931.448848</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1453442835667976</v>
+        <v>0.125247005687825</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03384346346052949</v>
+        <v>0.0333814204869638</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1082790253.61769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2890892426.435389</v>
+        <v>2017704118.314352</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1081085958592723</v>
+        <v>0.09607155686655153</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03308383942551546</v>
+        <v>0.04160393058248067</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>56</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1445446220.894689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2339478137.392351</v>
+        <v>1758180269.34026</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1152401101555619</v>
+        <v>0.1274123510238396</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04501191823708921</v>
+        <v>0.04730104935749012</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1169739019.419065</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3694474420.380637</v>
+        <v>3758830628.387998</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1220086863005398</v>
+        <v>0.1258564271489361</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02289021337013267</v>
+        <v>0.02719550641374186</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>76</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1847237241.996101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3673979761.460652</v>
+        <v>3719197627.423119</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09236402192474107</v>
+        <v>0.1259885464123368</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02743860075067869</v>
+        <v>0.0197917840541879</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>61</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1836989911.149599</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3246350762.285696</v>
+        <v>3162560947.587939</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1378610864331005</v>
+        <v>0.1264502077655576</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03090557269472602</v>
+        <v>0.03509701165274327</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>72</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1623175384.971652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4594217399.572205</v>
+        <v>3920863654.854813</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1624269120441197</v>
+        <v>0.1242500847409686</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02196795947233771</v>
+        <v>0.01706886146598954</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>71</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2297108817.887</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2613752398.349357</v>
+        <v>3397199058.21101</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2007607972266669</v>
+        <v>0.1841698690420731</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04036431883513033</v>
+        <v>0.05774487726829591</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>94</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1306876237.179886</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_231.xlsx
+++ b/output/fit_clients/fit_round_231.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1786871823.043587</v>
+        <v>2229974317.463979</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07333480347691194</v>
+        <v>0.07416906059929228</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02939220502975898</v>
+        <v>0.02835213493965183</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2079320959.765408</v>
+        <v>2288569857.66976</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1355581269714601</v>
+        <v>0.142784879100605</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0430606518427285</v>
+        <v>0.03296456865080268</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4849125747.419247</v>
+        <v>3339111718.376607</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1598294841644628</v>
+        <v>0.1243116979287562</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02877372416032839</v>
+        <v>0.03462287951586646</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3339907784.260088</v>
+        <v>2708347305.591336</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08311290769893953</v>
+        <v>0.1057001806430526</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04710029166909354</v>
+        <v>0.04891642814368594</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2128154781.588903</v>
+        <v>2432607095.248734</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1077006584541243</v>
+        <v>0.1260826520696876</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05472185666240358</v>
+        <v>0.04385259290544188</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2985844391.509072</v>
+        <v>2858134482.765681</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09511598003287806</v>
+        <v>0.0806135267095088</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04081057303690335</v>
+        <v>0.03204440071520808</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3761444246.043164</v>
+        <v>2509775031.19763</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1877369773406707</v>
+        <v>0.2116812069643045</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03137688498911139</v>
+        <v>0.02218529500415607</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1402848600.145835</v>
+        <v>1780652864.190278</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1546082208525476</v>
+        <v>0.1515868048424873</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02747973789680123</v>
+        <v>0.02374175767671209</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5304204948.058586</v>
+        <v>3743976392.261395</v>
       </c>
       <c r="F10" t="n">
-        <v>0.216969538951205</v>
+        <v>0.1464567896435567</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03544778434557142</v>
+        <v>0.05284575776160586</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3553133423.175653</v>
+        <v>3481122009.78276</v>
       </c>
       <c r="F11" t="n">
-        <v>0.142261561243574</v>
+        <v>0.1199029599270934</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03982917802741357</v>
+        <v>0.03184787125506826</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2814979506.861621</v>
+        <v>2809216076.877781</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1693756806750859</v>
+        <v>0.1327287134519862</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03931878621532008</v>
+        <v>0.04612959980471189</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3492890472.621538</v>
+        <v>4302115102.575692</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09438977512746596</v>
+        <v>0.08236360310487982</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02397846828917043</v>
+        <v>0.0189117337420175</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2792838764.194099</v>
+        <v>3180259559.389601</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1440245927662431</v>
+        <v>0.1600110187656671</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03747732112990093</v>
+        <v>0.03373105481394098</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1470216865.699662</v>
+        <v>1667423737.093381</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1058499404815121</v>
+        <v>0.08055448991185644</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04303583101236404</v>
+        <v>0.04056343034872045</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2440273707.672854</v>
+        <v>2791604065.787128</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1024393443293043</v>
+        <v>0.0828607843118743</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03673253037731771</v>
+        <v>0.05153762881690724</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5287556624.223556</v>
+        <v>4821619886.86364</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1597628295247418</v>
+        <v>0.152536792628378</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03209288802793388</v>
+        <v>0.05118205440115708</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3116593722.421708</v>
+        <v>2761772255.879773</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1486046745682397</v>
+        <v>0.1594622574726543</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02339330828116997</v>
+        <v>0.0272177288997844</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1224334369.417849</v>
+        <v>1037830460.458372</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1674056641613687</v>
+        <v>0.173994760042387</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02514565446852331</v>
+        <v>0.02360709483172935</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2579293589.039795</v>
+        <v>1991249265.601261</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1196134996686829</v>
+        <v>0.1222318949998987</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02674995901189251</v>
+        <v>0.02469493649207836</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1666559917.411472</v>
+        <v>2154357574.627089</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07352119823483302</v>
+        <v>0.08211642406866061</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03837351133881336</v>
+        <v>0.04105479007782097</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,16 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3998535760.729805</v>
+        <v>2780603861.037251</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09465973516305301</v>
+        <v>0.1103680709585242</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03989883898203586</v>
+        <v>0.03913843254055023</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1283217307.196685</v>
+        <v>1140004025.116843</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1266572608292662</v>
+        <v>0.1745546286718045</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05203932073354985</v>
+        <v>0.05391959542919623</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3127319071.723993</v>
+        <v>4068140872.81049</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1384930238889788</v>
+        <v>0.1219809383350351</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03231911609575412</v>
+        <v>0.0236141734507865</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1104105410.924186</v>
+        <v>1185878872.551508</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09974866499777624</v>
+        <v>0.1145765239941113</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02910171800620875</v>
+        <v>0.01875090298652109</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1456627394.366043</v>
+        <v>1429856729.059105</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0843892782256469</v>
+        <v>0.1079881797192651</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03259862397875325</v>
+        <v>0.02635539821707213</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3229578434.488746</v>
+        <v>3332716824.71368</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1049244518859157</v>
+        <v>0.1558728016955818</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01719648958407764</v>
+        <v>0.02075696613275868</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3346428775.568403</v>
+        <v>3097184165.410613</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1176757160868554</v>
+        <v>0.1366495154143913</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0388685011837017</v>
+        <v>0.04911552346248362</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4292740342.352616</v>
+        <v>4799175114.258842</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1126474235303281</v>
+        <v>0.138234977740125</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04470438972058655</v>
+        <v>0.04044230651497209</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1903467108.521762</v>
+        <v>2276566135.816791</v>
       </c>
       <c r="F30" t="n">
-        <v>0.102796285687086</v>
+        <v>0.1152525044246162</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03266484577831846</v>
+        <v>0.02509719308907232</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1479689715.623672</v>
+        <v>1403833341.362828</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07340672772603206</v>
+        <v>0.1008603679412321</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05250996484520537</v>
+        <v>0.03337178769128361</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1675725688.714751</v>
+        <v>1352847273.214576</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09620819332135547</v>
+        <v>0.07664282734678933</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02778736446906141</v>
+        <v>0.03163820673758242</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2810801395.021751</v>
+        <v>2051775883.050841</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1534839837214509</v>
+        <v>0.1697002287288769</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05228245007556094</v>
+        <v>0.05715698538856712</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1393406562.317554</v>
+        <v>1138035354.332181</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0983738997388313</v>
+        <v>0.09685685217050762</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01773458529569798</v>
+        <v>0.01947156882901859</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1344131300.493653</v>
+        <v>858003105.7302318</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07206461174899088</v>
+        <v>0.08809414004744914</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03776836028947367</v>
+        <v>0.04348841857523017</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2216743736.755481</v>
+        <v>3224690883.182345</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1274339038520049</v>
+        <v>0.114263970949221</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02386650947248792</v>
+        <v>0.02849505585123756</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2336522883.825457</v>
+        <v>2255487066.302176</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07270318078083124</v>
+        <v>0.09719937979809108</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03682976534127702</v>
+        <v>0.03033995391645786</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2142085191.904107</v>
+        <v>2101234473.317697</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07491859603302266</v>
+        <v>0.0968609799017237</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02945494848413581</v>
+        <v>0.03184148782346168</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1538167029.657355</v>
+        <v>1667762478.416387</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1517204328682553</v>
+        <v>0.1430120683342595</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01998280447459034</v>
+        <v>0.02707737360417407</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1768847718.521078</v>
+        <v>1779247304.039179</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1041750579275313</v>
+        <v>0.1030836260936541</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03926958207004584</v>
+        <v>0.05873611534959353</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2761722381.589512</v>
+        <v>2850166001.62379</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1332057223087775</v>
+        <v>0.1403760154304713</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04233531240922703</v>
+        <v>0.03212031618965743</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4359349206.177254</v>
+        <v>2951425196.690975</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1185231216156053</v>
+        <v>0.1096132651477004</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03248769330652007</v>
+        <v>0.03392473292344318</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1951175840.949514</v>
+        <v>2345876030.130773</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1464105649733708</v>
+        <v>0.2009704528704413</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01934966799032469</v>
+        <v>0.01752637201067321</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1895398536.956766</v>
+        <v>1742588899.155591</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07511640632093369</v>
+        <v>0.07786699830703032</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02255318165493697</v>
+        <v>0.02720000363022325</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1598161913.603786</v>
+        <v>2112817676.121804</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1694628934507194</v>
+        <v>0.1533528159500869</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0421363159438194</v>
+        <v>0.05421971133396868</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4530706809.237394</v>
+        <v>4346391144.434903</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1190239355705084</v>
+        <v>0.1157420383999753</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04043287212113523</v>
+        <v>0.05095273644956932</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3671490391.940391</v>
+        <v>3559086656.606281</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1768606780165181</v>
+        <v>0.1254422926192011</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03787287717956069</v>
+        <v>0.04174878549928027</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3745254168.701664</v>
+        <v>4443245142.988324</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08043610404769451</v>
+        <v>0.06678122928178437</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03632645140702203</v>
+        <v>0.03253538241535223</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1304206008.974396</v>
+        <v>1839251746.022017</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1419533925561412</v>
+        <v>0.1815218274678</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02717977064533338</v>
+        <v>0.03522504169348351</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2933437732.130496</v>
+        <v>3135071849.428632</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1572610674090798</v>
+        <v>0.1128938625804042</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03429893574862671</v>
+        <v>0.03339891802598793</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1310057259.253831</v>
+        <v>1145427690.664649</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1807063236920435</v>
+        <v>0.1428962303311489</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04038588602881227</v>
+        <v>0.04955698884356813</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4211717084.752224</v>
+        <v>4001612090.912809</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1117595884619634</v>
+        <v>0.08875369169564853</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05438949918964758</v>
+        <v>0.05494318194645153</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2789991255.324374</v>
+        <v>3647763291.529735</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1488934130324174</v>
+        <v>0.1291850273985553</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0220301836750978</v>
+        <v>0.02794121776064351</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3561693928.978693</v>
+        <v>3389748552.444902</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1361053955525858</v>
+        <v>0.1526784379928609</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0461434267262306</v>
+        <v>0.0332038692933514</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3274678808.322769</v>
+        <v>4685367709.644784</v>
       </c>
       <c r="F55" t="n">
-        <v>0.203172580846035</v>
+        <v>0.1797163791510026</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02399184945718035</v>
+        <v>0.02122497398615049</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1754438273.802763</v>
+        <v>1336383729.058383</v>
       </c>
       <c r="F56" t="n">
-        <v>0.106832473167589</v>
+        <v>0.1343525828512619</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0403497763958513</v>
+        <v>0.05581662256706267</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2764054401.496748</v>
+        <v>4292498409.629228</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1845732944621606</v>
+        <v>0.1424830886378872</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02211365910120552</v>
+        <v>0.01940521644988705</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1617067985.362997</v>
+        <v>1649937255.989499</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1602755516537235</v>
+        <v>0.1293813329038521</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03048955885689272</v>
+        <v>0.03613762793455771</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4981806607.103111</v>
+        <v>4122796258.77653</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08162011100768557</v>
+        <v>0.08097397406285904</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04745561035733771</v>
+        <v>0.0419934468717567</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2447653316.904114</v>
+        <v>3147207072.879049</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1791199999421186</v>
+        <v>0.1958308819666488</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03001881418129553</v>
+        <v>0.02840062090532773</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3003891196.090481</v>
+        <v>2377351271.099199</v>
       </c>
       <c r="F61" t="n">
-        <v>0.165866618794651</v>
+        <v>0.1156601435562472</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02152702520134027</v>
+        <v>0.02155721168915429</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1490033877.152613</v>
+        <v>1976347366.625476</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1525348656505212</v>
+        <v>0.1679150152851619</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04452050933440874</v>
+        <v>0.04128407527841769</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4007067043.186582</v>
+        <v>4840253036.93856</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07369642327901622</v>
+        <v>0.06787757084428239</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04656668992445528</v>
+        <v>0.04351704376909382</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3721067612.144463</v>
+        <v>4613572887.103229</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1543863600959806</v>
+        <v>0.1654672509274768</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02325224518580989</v>
+        <v>0.02262706197580976</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5142773488.124011</v>
+        <v>5925933379.555264</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1362616588410097</v>
+        <v>0.1094534863752914</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02399060579506332</v>
+        <v>0.02042870527049585</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3771140687.89575</v>
+        <v>4446489443.035349</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1535925791135219</v>
+        <v>0.1013795843267992</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05064387177336654</v>
+        <v>0.04469106099819261</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2825004213.272195</v>
+        <v>2334661092.580895</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08415736687964082</v>
+        <v>0.07712585701967378</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03564685672680135</v>
+        <v>0.04421972261321107</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5233216462.359483</v>
+        <v>4673314159.128993</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1277249961735057</v>
+        <v>0.1292568388204239</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03893664627289461</v>
+        <v>0.03905177428991683</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1743075645.227548</v>
+        <v>2326983456.569307</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1735454154365122</v>
+        <v>0.1426401387480652</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05558330098156125</v>
+        <v>0.04072560437659768</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2881934197.696445</v>
+        <v>2848938725.138909</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09709179478795621</v>
+        <v>0.09512093400115748</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04201034573748936</v>
+        <v>0.04963810636625846</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5380805842.657976</v>
+        <v>4698032453.866689</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1376810471791962</v>
+        <v>0.1672653238130191</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0293887620386432</v>
+        <v>0.03239947131149487</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1656193105.892016</v>
+        <v>2225242835.628853</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08877656357823163</v>
+        <v>0.08368746630660308</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04916207083591655</v>
+        <v>0.03507745625872535</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2196297586.405037</v>
+        <v>2380940439.845119</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0777645278470394</v>
+        <v>0.1036963286148972</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04114582732185605</v>
+        <v>0.03373831065543166</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2825324801.555217</v>
+        <v>2482605746.07303</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1270631165948003</v>
+        <v>0.1342228449608359</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02737451557295207</v>
+        <v>0.03525984605167699</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1649075506.565794</v>
+        <v>2366751374.944966</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1313639922603842</v>
+        <v>0.1019508316985099</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03663560055059973</v>
+        <v>0.03075171265280009</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3237756325.250981</v>
+        <v>5285675423.213376</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1075752334076711</v>
+        <v>0.09551217360404844</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0311208409511493</v>
+        <v>0.03140023595416072</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2284565443.808367</v>
+        <v>1886446976.411777</v>
       </c>
       <c r="F77" t="n">
-        <v>0.171303607761717</v>
+        <v>0.1578870602607349</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02707884908004001</v>
+        <v>0.02758766448057226</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4073522963.842062</v>
+        <v>3178969451.275629</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09010726530956523</v>
+        <v>0.09347648007172621</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05082750250971504</v>
+        <v>0.03796654313700874</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1207964377.682489</v>
+        <v>1772855875.896486</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1666612391703567</v>
+        <v>0.1537568952226777</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03618992851761189</v>
+        <v>0.03639511364488237</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4606666811.236863</v>
+        <v>4841337897.799548</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07121283683151543</v>
+        <v>0.1092550886056448</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03604427230026013</v>
+        <v>0.02457630070564223</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4943935748.687545</v>
+        <v>3314273863.553269</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1121184402903047</v>
+        <v>0.08300944928219375</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02453806159778701</v>
+        <v>0.02582769724963244</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3708565381.036921</v>
+        <v>3567418462.365235</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1868485880128171</v>
+        <v>0.1344492304154397</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02692291663603687</v>
+        <v>0.02819708290015016</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2461752409.459525</v>
+        <v>1988729997.411152</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1085079702253092</v>
+        <v>0.155196427835906</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03797007505572207</v>
+        <v>0.03889281899320976</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2554167291.914054</v>
+        <v>1594714244.991361</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07435828875926913</v>
+        <v>0.09434876219865272</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03708582083044337</v>
+        <v>0.04961518234264396</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2914623980.064275</v>
+        <v>3621366643.783431</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1625702575211517</v>
+        <v>0.1362914710070932</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03503280087004009</v>
+        <v>0.05258069338119759</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2070640460.33245</v>
+        <v>2540197506.779901</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1078659185042216</v>
+        <v>0.1081210873448625</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01943158605225069</v>
+        <v>0.02176698136582696</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1232869075.565654</v>
+        <v>1369959782.814913</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1291418625885753</v>
+        <v>0.1834239106428533</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03400753151869149</v>
+        <v>0.03320041351341207</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2888673630.096028</v>
+        <v>3577879279.938701</v>
       </c>
       <c r="F88" t="n">
-        <v>0.169830953989116</v>
+        <v>0.13586844617201</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03921211886184329</v>
+        <v>0.03022272894233998</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3188320086.022043</v>
+        <v>2743277824.358554</v>
       </c>
       <c r="F89" t="n">
-        <v>0.158596438849874</v>
+        <v>0.1317720642166686</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04090943039140148</v>
+        <v>0.03219826084983657</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1883919045.627328</v>
+        <v>1878408013.759281</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1179013787424972</v>
+        <v>0.1309731828762564</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05293598550001748</v>
+        <v>0.0509416846118485</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1669611361.533539</v>
+        <v>1556392714.542425</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1688096911812397</v>
+        <v>0.1803050151697254</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05843423391389815</v>
+        <v>0.04790296751824641</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2334558261.35321</v>
+        <v>2798210784.252756</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0845502538143864</v>
+        <v>0.08165744512518507</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0305695258700016</v>
+        <v>0.04175196067379301</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3035699130.988768</v>
+        <v>4646714281.706212</v>
       </c>
       <c r="F93" t="n">
-        <v>0.107642814323079</v>
+        <v>0.1305534516462493</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03895037086516757</v>
+        <v>0.04916822300523786</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1760115931.448848</v>
+        <v>1717691192.977809</v>
       </c>
       <c r="F94" t="n">
-        <v>0.125247005687825</v>
+        <v>0.1134611331751428</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0333814204869638</v>
+        <v>0.03392500126450729</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2017704118.314352</v>
+        <v>3031907235.832242</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09607155686655153</v>
+        <v>0.1127750228732312</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04160393058248067</v>
+        <v>0.04960371821718387</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1758180269.34026</v>
+        <v>2240781298.760875</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1274123510238396</v>
+        <v>0.1220273796860344</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04730104935749012</v>
+        <v>0.02953691915532105</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3758830628.387998</v>
+        <v>4231007591.817666</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1258564271489361</v>
+        <v>0.1117082238007035</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02719550641374186</v>
+        <v>0.01929301292954176</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3719197627.423119</v>
+        <v>3939634596.84258</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1259885464123368</v>
+        <v>0.0955056397679105</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0197917840541879</v>
+        <v>0.02847198260210329</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3162560947.587939</v>
+        <v>2314629135.242608</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1264502077655576</v>
+        <v>0.1403904958251322</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03509701165274327</v>
+        <v>0.02823916997638185</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3920863654.854813</v>
+        <v>4384610164.450378</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1242500847409686</v>
+        <v>0.122342226361216</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01706886146598954</v>
+        <v>0.024881232876031</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3397199058.21101</v>
+        <v>2274370472.103096</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1841698690420731</v>
+        <v>0.1388319460817695</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05774487726829591</v>
+        <v>0.04305872237738469</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_231.xlsx
+++ b/output/fit_clients/fit_round_231.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2229974317.463979</v>
+        <v>2203154173.503387</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07416906059929228</v>
+        <v>0.08885606144668916</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02835213493965183</v>
+        <v>0.0326380611724247</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2288569857.66976</v>
+        <v>1704029106.564201</v>
       </c>
       <c r="F3" t="n">
-        <v>0.142784879100605</v>
+        <v>0.1581120804162007</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03296456865080268</v>
+        <v>0.04944146527909079</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3339111718.376607</v>
+        <v>4119624372.238927</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1243116979287562</v>
+        <v>0.1072357417568029</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03462287951586646</v>
+        <v>0.0271486011074705</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>125</v>
+      </c>
+      <c r="J4" t="n">
+        <v>231</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2708347305.591336</v>
+        <v>3053641407.952363</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1057001806430526</v>
+        <v>0.09653448019282543</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04891642814368594</v>
+        <v>0.03904101278971953</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>95</v>
+      </c>
+      <c r="J5" t="n">
+        <v>228</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2432607095.248734</v>
+        <v>1990256209.318429</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1260826520696876</v>
+        <v>0.1405474540420981</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04385259290544188</v>
+        <v>0.05270273296995175</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2858134482.765681</v>
+        <v>2290945036.573293</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0806135267095088</v>
+        <v>0.06692905672702551</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03204440071520808</v>
+        <v>0.04797940862638116</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2509775031.19763</v>
+        <v>3988252835.721791</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2116812069643045</v>
+        <v>0.1534670911217593</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02218529500415607</v>
+        <v>0.02575867510459142</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>66</v>
+      </c>
+      <c r="J8" t="n">
+        <v>230</v>
+      </c>
+      <c r="K8" t="n">
+        <v>110.6899426352582</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1780652864.190278</v>
+        <v>1401634757.15047</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1515868048424873</v>
+        <v>0.1587280489250724</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02374175767671209</v>
+        <v>0.03253972545475046</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3743976392.261395</v>
+        <v>4495371313.419699</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1464567896435567</v>
+        <v>0.1577726318955614</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05284575776160586</v>
+        <v>0.05129654376819972</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>210</v>
+      </c>
+      <c r="J10" t="n">
+        <v>231</v>
+      </c>
+      <c r="K10" t="n">
+        <v>116.8836357263167</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3481122009.78276</v>
+        <v>3880649526.713868</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1199029599270934</v>
+        <v>0.1841682033638647</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03184787125506826</v>
+        <v>0.04828855280918702</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>95</v>
+      </c>
+      <c r="J11" t="n">
+        <v>231</v>
+      </c>
+      <c r="K11" t="n">
+        <v>112.9676869672744</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2809216076.877781</v>
+        <v>2458528783.530444</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1327287134519862</v>
+        <v>0.1837115275936455</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04612959980471189</v>
+        <v>0.03640112410648548</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4302115102.575692</v>
+        <v>3295785960.502176</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08236360310487982</v>
+        <v>0.100231788484117</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0189117337420175</v>
+        <v>0.0225801704863865</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>117</v>
+      </c>
+      <c r="J13" t="n">
+        <v>230</v>
+      </c>
+      <c r="K13" t="n">
+        <v>74.64959337012006</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3180259559.389601</v>
+        <v>3032013993.690969</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1600110187656671</v>
+        <v>0.1175621369462744</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03373105481394098</v>
+        <v>0.04187336985555151</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>44</v>
+      </c>
+      <c r="J14" t="n">
+        <v>227</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1667423737.093381</v>
+        <v>1364292080.898208</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08055448991185644</v>
+        <v>0.09397702133702003</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04056343034872045</v>
+        <v>0.03714812220382095</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2791604065.787128</v>
+        <v>1808200448.542447</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0828607843118743</v>
+        <v>0.09026420127103177</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05153762881690724</v>
+        <v>0.05175215148601563</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4821619886.86364</v>
+        <v>3851395287.61437</v>
       </c>
       <c r="F17" t="n">
-        <v>0.152536792628378</v>
+        <v>0.1101694237096782</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05118205440115708</v>
+        <v>0.04382283493399168</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>111</v>
+      </c>
+      <c r="J17" t="n">
+        <v>231</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2761772255.879773</v>
+        <v>3310972412.543284</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1594622574726543</v>
+        <v>0.1280791787317724</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0272177288997844</v>
+        <v>0.02877619278118803</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>58</v>
+      </c>
+      <c r="J18" t="n">
+        <v>221</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1037830460.458372</v>
+        <v>1060720335.474174</v>
       </c>
       <c r="F19" t="n">
-        <v>0.173994760042387</v>
+        <v>0.185212750188134</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02360709483172935</v>
+        <v>0.02514124141271029</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1991249265.601261</v>
+        <v>1948509115.310266</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1222318949998987</v>
+        <v>0.1049592782974511</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02469493649207836</v>
+        <v>0.02411837829161383</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2154357574.627089</v>
+        <v>2095008611.673253</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08211642406866061</v>
+        <v>0.08661482002387626</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04105479007782097</v>
+        <v>0.03164397899539211</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2780603861.037251</v>
+        <v>3696449412.487937</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1103680709585242</v>
+        <v>0.1110639304139085</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03913843254055023</v>
+        <v>0.05295166927542416</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>58</v>
+      </c>
+      <c r="J22" t="n">
+        <v>231</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1140004025.116843</v>
+        <v>1227439170.57688</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1745546286718045</v>
+        <v>0.1178094090622234</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05391959542919623</v>
+        <v>0.05237594498195446</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4068140872.81049</v>
+        <v>2974222088.830128</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1219809383350351</v>
+        <v>0.1397841879763006</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0236141734507865</v>
+        <v>0.02393543188998054</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>70</v>
+      </c>
+      <c r="J24" t="n">
+        <v>220</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1185878872.551508</v>
+        <v>1147446461.683882</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1145765239941113</v>
+        <v>0.1027897387312555</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01875090298652109</v>
+        <v>0.02416440202708462</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1429856729.059105</v>
+        <v>890471328.1988823</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1079881797192651</v>
+        <v>0.07605762892172996</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02635539821707213</v>
+        <v>0.02656586517734019</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3332716824.71368</v>
+        <v>4585000181.67697</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1558728016955818</v>
+        <v>0.131890574250171</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02075696613275868</v>
+        <v>0.02302621522216947</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>93</v>
+      </c>
+      <c r="J27" t="n">
+        <v>230</v>
+      </c>
+      <c r="K27" t="n">
+        <v>96.07723128129315</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1415,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3097184165.410613</v>
+        <v>3413585679.803225</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1366495154143913</v>
+        <v>0.09862014876084535</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04911552346248362</v>
+        <v>0.0446636249689244</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>48</v>
+      </c>
+      <c r="J28" t="n">
+        <v>230</v>
+      </c>
+      <c r="K28" t="n">
+        <v>80.68119241193632</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4799175114.258842</v>
+        <v>4780463035.542709</v>
       </c>
       <c r="F29" t="n">
-        <v>0.138234977740125</v>
+        <v>0.1099765556618784</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04044230651497209</v>
+        <v>0.03790715068723039</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>220</v>
+      </c>
+      <c r="J29" t="n">
+        <v>231</v>
+      </c>
+      <c r="K29" t="n">
+        <v>119.7904749734764</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2276566135.816791</v>
+        <v>2201538297.641153</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1152525044246162</v>
+        <v>0.1366323818559758</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02509719308907232</v>
+        <v>0.0254868675437983</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1403833341.362828</v>
+        <v>1338874734.547353</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1008603679412321</v>
+        <v>0.09459812979654728</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03337178769128361</v>
+        <v>0.0467138689043602</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1352847273.214576</v>
+        <v>1795273012.690965</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07664282734678933</v>
+        <v>0.1016762741006051</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03163820673758242</v>
+        <v>0.03876650119605148</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2051775883.050841</v>
+        <v>2440237375.641368</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1697002287288769</v>
+        <v>0.2033218044709098</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05715698538856712</v>
+        <v>0.04114231444109146</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1138035354.332181</v>
+        <v>1265463827.678069</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09685685217050762</v>
+        <v>0.08077767430744567</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01947156882901859</v>
+        <v>0.0194993766124273</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>858003105.7302318</v>
+        <v>1192141800.701659</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08809414004744914</v>
+        <v>0.08824386670578085</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04348841857523017</v>
+        <v>0.04062141408725929</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1705,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3224690883.182345</v>
+        <v>2546508135.080243</v>
       </c>
       <c r="F36" t="n">
-        <v>0.114263970949221</v>
+        <v>0.1170127740408813</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02849505585123756</v>
+        <v>0.02421161407147667</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1740,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2255487066.302176</v>
+        <v>1940735424.887333</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09719937979809108</v>
+        <v>0.1025402502126283</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03033995391645786</v>
+        <v>0.02627831225680772</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1775,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2101234473.317697</v>
+        <v>1923789820.001234</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0968609799017237</v>
+        <v>0.09522074384404074</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03184148782346168</v>
+        <v>0.02514462045873616</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1667762478.416387</v>
+        <v>1958286222.858922</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1430120683342595</v>
+        <v>0.1505400102865412</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02707737360417407</v>
+        <v>0.02860947873239474</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1779247304.039179</v>
+        <v>1688105087.658212</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1030836260936541</v>
+        <v>0.158549160985211</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05873611534959353</v>
+        <v>0.04170425600790382</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2850166001.62379</v>
+        <v>2445256683.849524</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1403760154304713</v>
+        <v>0.1134557640461369</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03212031618965743</v>
+        <v>0.0429270512873189</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1915,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2951425196.690975</v>
+        <v>2950864811.938826</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1096132651477004</v>
+        <v>0.09788067229053528</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03392473292344318</v>
+        <v>0.04082831923621651</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>94</v>
+      </c>
+      <c r="J42" t="n">
+        <v>230</v>
+      </c>
+      <c r="K42" t="n">
+        <v>62.23533737310522</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1952,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2345876030.130773</v>
+        <v>2014149899.993769</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2009704528704413</v>
+        <v>0.1623195500410972</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01752637201067321</v>
+        <v>0.02534812659723896</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1742588899.155591</v>
+        <v>2101409982.693538</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07786699830703032</v>
+        <v>0.08031175210151539</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02720000363022325</v>
+        <v>0.0328018704263772</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2112817676.121804</v>
+        <v>2187645053.388192</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1533528159500869</v>
+        <v>0.1341679226774797</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05421971133396868</v>
+        <v>0.04351605335205026</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4346391144.434903</v>
+        <v>4527991827.804357</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1157420383999753</v>
+        <v>0.1182495446229624</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05095273644956932</v>
+        <v>0.03722240958614245</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>133</v>
+      </c>
+      <c r="J46" t="n">
+        <v>230</v>
+      </c>
+      <c r="K46" t="n">
+        <v>109.8752914860221</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2088,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3559086656.606281</v>
+        <v>3289602091.590649</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1254422926192011</v>
+        <v>0.1781566628194693</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04174878549928027</v>
+        <v>0.05506388119349137</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>103</v>
+      </c>
+      <c r="J47" t="n">
+        <v>229</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2129,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4443245142.988324</v>
+        <v>3206106523.678495</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06678122928178437</v>
+        <v>0.09915532099423567</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03253538241535223</v>
+        <v>0.03406417586692396</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>112</v>
+      </c>
+      <c r="J48" t="n">
+        <v>229</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1839251746.022017</v>
+        <v>1812287147.725632</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1815218274678</v>
+        <v>0.1726790364213124</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03522504169348351</v>
+        <v>0.03451590772816843</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2199,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3135071849.428632</v>
+        <v>3283422179.909872</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1128938625804042</v>
+        <v>0.159873030455981</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03339891802598793</v>
+        <v>0.04853307962758291</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>76</v>
+      </c>
+      <c r="J50" t="n">
+        <v>228</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1145427690.664649</v>
+        <v>1319006974.625346</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1428962303311489</v>
+        <v>0.1517006262786185</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04955698884356813</v>
+        <v>0.03276025431571086</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2269,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4001612090.912809</v>
+        <v>4984810822.564531</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08875369169564853</v>
+        <v>0.1290868444752366</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05494318194645153</v>
+        <v>0.06094839611520959</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>152</v>
+      </c>
+      <c r="J52" t="n">
+        <v>231</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3647763291.529735</v>
+        <v>3614678873.096188</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1291850273985553</v>
+        <v>0.1984186175637339</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02794121776064351</v>
+        <v>0.0290446534327579</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>31</v>
+      </c>
+      <c r="J53" t="n">
+        <v>231</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3389748552.444902</v>
+        <v>3775009425.740201</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1526784379928609</v>
+        <v>0.132454466273727</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0332038692933514</v>
+        <v>0.05173937464885469</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>123</v>
+      </c>
+      <c r="J54" t="n">
+        <v>231</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4685367709.644784</v>
+        <v>3995010780.259953</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1797163791510026</v>
+        <v>0.1859189257300088</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02122497398615049</v>
+        <v>0.02179748908303324</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>103</v>
+      </c>
+      <c r="J55" t="n">
+        <v>231</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1336383729.058383</v>
+        <v>1142191280.485499</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1343525828512619</v>
+        <v>0.1650320131665075</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05581662256706267</v>
+        <v>0.05124141102845774</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4292498409.629228</v>
+        <v>3925243996.685982</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1424830886378872</v>
+        <v>0.1769803439901351</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01940521644988705</v>
+        <v>0.02703655792169215</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>90</v>
+      </c>
+      <c r="J57" t="n">
+        <v>231</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1649937255.989499</v>
+        <v>1375658038.433549</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1293813329038521</v>
+        <v>0.1372641147879789</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03613762793455771</v>
+        <v>0.03689058416432908</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4122796258.77653</v>
+        <v>3822577973.392884</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08097397406285904</v>
+        <v>0.09206476476451451</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0419934468717567</v>
+        <v>0.04117551432795077</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>112</v>
+      </c>
+      <c r="J59" t="n">
+        <v>230</v>
+      </c>
+      <c r="K59" t="n">
+        <v>92.06997623747361</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3147207072.879049</v>
+        <v>3689037211.530996</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1958308819666488</v>
+        <v>0.2044217382806365</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02840062090532773</v>
+        <v>0.0245796192838321</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>32</v>
+      </c>
+      <c r="J60" t="n">
+        <v>231</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2377351271.099199</v>
+        <v>3294067639.011996</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1156601435562472</v>
+        <v>0.137733289394225</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02155721168915429</v>
+        <v>0.02133140603964691</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1976347366.625476</v>
+        <v>1845757316.138995</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1679150152851619</v>
+        <v>0.1739878561353237</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04128407527841769</v>
+        <v>0.04128629284503656</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2656,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4840253036.93856</v>
+        <v>4333252493.840376</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06787757084428239</v>
+        <v>0.08022941684565107</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04351704376909382</v>
+        <v>0.04202142211946686</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>112</v>
+      </c>
+      <c r="J63" t="n">
+        <v>231</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4613572887.103229</v>
+        <v>4199622418.914606</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1654672509274768</v>
+        <v>0.1443162557222134</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02262706197580976</v>
+        <v>0.02188196867232766</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>114</v>
+      </c>
+      <c r="J64" t="n">
+        <v>230</v>
+      </c>
+      <c r="K64" t="n">
+        <v>104.9306603851672</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5925933379.555264</v>
+        <v>5108228781.589704</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1094534863752914</v>
+        <v>0.1237841026212921</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02042870527049585</v>
+        <v>0.0304883981441289</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>184</v>
+      </c>
+      <c r="J65" t="n">
+        <v>231</v>
+      </c>
+      <c r="K65" t="n">
+        <v>110.8748464983507</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2765,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4446489443.035349</v>
+        <v>4684560040.749976</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1013795843267992</v>
+        <v>0.1288069829720619</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04469106099819261</v>
+        <v>0.04194357670108135</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>114</v>
+      </c>
+      <c r="J66" t="n">
+        <v>230</v>
+      </c>
+      <c r="K66" t="n">
+        <v>98.59164356431357</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2334661092.580895</v>
+        <v>3499361987.735413</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07712585701967378</v>
+        <v>0.06614159287158929</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04421972261321107</v>
+        <v>0.04997137096585832</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>4</v>
+      </c>
+      <c r="J67" t="n">
+        <v>226</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4673314159.128993</v>
+        <v>5411051141.668133</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1292568388204239</v>
+        <v>0.1492100380852965</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03905177428991683</v>
+        <v>0.03270532035001323</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>116</v>
+      </c>
+      <c r="J68" t="n">
+        <v>231</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2326983456.569307</v>
+        <v>1886428951.663915</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1426401387480652</v>
+        <v>0.1755140729254531</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04072560437659768</v>
+        <v>0.05450339129492769</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2848938725.138909</v>
+        <v>3649692007.542018</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09512093400115748</v>
+        <v>0.08703606020742452</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04963810636625846</v>
+        <v>0.04268181306778503</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>35</v>
+      </c>
+      <c r="J70" t="n">
+        <v>231</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2936,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4698032453.866689</v>
+        <v>4985642220.242081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1672653238130191</v>
+        <v>0.1172970626311666</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03239947131149487</v>
+        <v>0.02441753136453308</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>175</v>
+      </c>
+      <c r="J71" t="n">
+        <v>231</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2225242835.628853</v>
+        <v>1958726312.856529</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08368746630660308</v>
+        <v>0.08355446373776668</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03507745625872535</v>
+        <v>0.04227433418978818</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2380940439.845119</v>
+        <v>3514333390.459835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1036963286148972</v>
+        <v>0.1011271917051062</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03373831065543166</v>
+        <v>0.04337134295727453</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3041,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2482605746.07303</v>
+        <v>3577037643.988414</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1342228449608359</v>
+        <v>0.1393338437173761</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03525984605167699</v>
+        <v>0.02405575322166693</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>67</v>
+      </c>
+      <c r="J74" t="n">
+        <v>229</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2366751374.944966</v>
+        <v>1927464771.845213</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1019508316985099</v>
+        <v>0.1222748347779696</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03075171265280009</v>
+        <v>0.03474223631862337</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3117,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5285675423.213376</v>
+        <v>3988689941.368606</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09551217360404844</v>
+        <v>0.09414816294980946</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03140023595416072</v>
+        <v>0.02629757948797971</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>107</v>
+      </c>
+      <c r="J76" t="n">
+        <v>230</v>
+      </c>
+      <c r="K76" t="n">
+        <v>96.81487811027213</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1886446976.411777</v>
+        <v>1662101478.144082</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1578870602607349</v>
+        <v>0.1450670641973226</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02758766448057226</v>
+        <v>0.01986740514560987</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3178969451.275629</v>
+        <v>3123562489.832891</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09347648007172621</v>
+        <v>0.1058667667925895</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03796654313700874</v>
+        <v>0.04116525498748071</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>116</v>
+      </c>
+      <c r="J78" t="n">
+        <v>230</v>
+      </c>
+      <c r="K78" t="n">
+        <v>67.42283501699451</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1772855875.896486</v>
+        <v>1476737901.591836</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1537568952226777</v>
+        <v>0.1331550623318545</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03639511364488237</v>
+        <v>0.02596781485738051</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3255,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4841337897.799548</v>
+        <v>4568171791.28834</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1092550886056448</v>
+        <v>0.07506747182362798</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02457630070564223</v>
+        <v>0.03815817161421577</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>112</v>
+      </c>
+      <c r="J80" t="n">
+        <v>231</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3290,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3314273863.553269</v>
+        <v>5064363765.338742</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08300944928219375</v>
+        <v>0.095678027459252</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02582769724963244</v>
+        <v>0.03100616432670552</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>106</v>
+      </c>
+      <c r="J81" t="n">
+        <v>231</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3325,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3567418462.365235</v>
+        <v>4138707491.566403</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1344492304154397</v>
+        <v>0.1769377487504837</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02819708290015016</v>
+        <v>0.02764189386021411</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>173</v>
+      </c>
+      <c r="J82" t="n">
+        <v>231</v>
+      </c>
+      <c r="K82" t="n">
+        <v>112.426908887389</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3368,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1988729997.411152</v>
+        <v>2052602047.08352</v>
       </c>
       <c r="F83" t="n">
-        <v>0.155196427835906</v>
+        <v>0.1390584659840471</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03889281899320976</v>
+        <v>0.03930621890516629</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1594714244.991361</v>
+        <v>1914655350.863436</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09434876219865272</v>
+        <v>0.07567058740207205</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04961518234264396</v>
+        <v>0.04454341174115718</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3432,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3621366643.783431</v>
+        <v>3135216347.538761</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1362914710070932</v>
+        <v>0.1823815638738547</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05258069338119759</v>
+        <v>0.03563574949586112</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>31</v>
+      </c>
+      <c r="J85" t="n">
+        <v>225</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2540197506.779901</v>
+        <v>2031686103.038064</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1081210873448625</v>
+        <v>0.1714986759421085</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02176698136582696</v>
+        <v>0.02509481770591195</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1369959782.814913</v>
+        <v>1125378628.509047</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1834239106428533</v>
+        <v>0.1235417439465264</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03320041351341207</v>
+        <v>0.03816734491191314</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,16 +3543,25 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3577879279.938701</v>
+        <v>2698248703.419234</v>
       </c>
       <c r="F88" t="n">
-        <v>0.13586844617201</v>
+        <v>0.1564658825675231</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03022272894233998</v>
+        <v>0.02991001407344248</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>33</v>
+      </c>
+      <c r="J88" t="n">
+        <v>230</v>
+      </c>
+      <c r="K88" t="n">
+        <v>53.88980122710261</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2743277824.358554</v>
+        <v>3434702949.737997</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1317720642166686</v>
+        <v>0.1535731072149727</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03219826084983657</v>
+        <v>0.02791181914210257</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>17</v>
+      </c>
+      <c r="J89" t="n">
+        <v>225</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1878408013.759281</v>
+        <v>1744927977.910144</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1309731828762564</v>
+        <v>0.1290550987469173</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0509416846118485</v>
+        <v>0.05211723764512327</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1556392714.542425</v>
+        <v>1826486155.403207</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1803050151697254</v>
+        <v>0.1373063755892635</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04790296751824641</v>
+        <v>0.06084921964522983</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2798210784.252756</v>
+        <v>2321592328.8832</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08165744512518507</v>
+        <v>0.06920806168237127</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04175196067379301</v>
+        <v>0.04739741946563805</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3720,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4646714281.706212</v>
+        <v>3344108126.576335</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1305534516462493</v>
+        <v>0.09573298839756611</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04916822300523786</v>
+        <v>0.03313158344771758</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>103</v>
+      </c>
+      <c r="J93" t="n">
+        <v>230</v>
+      </c>
+      <c r="K93" t="n">
+        <v>73.93177370534958</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1717691192.977809</v>
+        <v>1739517834.410149</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1134611331751428</v>
+        <v>0.1042580860072426</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03392500126450729</v>
+        <v>0.03869969826428598</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3031907235.832242</v>
+        <v>2352387733.312555</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1127750228732312</v>
+        <v>0.1028016131418388</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04960371821718387</v>
+        <v>0.04429794126323806</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2240781298.760875</v>
+        <v>1600886449.957176</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1220273796860344</v>
+        <v>0.09964544149042504</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02953691915532105</v>
+        <v>0.04480778314037721</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4231007591.817666</v>
+        <v>4583942332.686568</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1117082238007035</v>
+        <v>0.1313691774557884</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01929301292954176</v>
+        <v>0.02593370460543174</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>112</v>
+      </c>
+      <c r="J97" t="n">
+        <v>230</v>
+      </c>
+      <c r="K97" t="n">
+        <v>109.0900640394119</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3939634596.84258</v>
+        <v>2995101733.526707</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0955056397679105</v>
+        <v>0.1064462953337011</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02847198260210329</v>
+        <v>0.03148161088241497</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>56</v>
+      </c>
+      <c r="J98" t="n">
+        <v>229</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2314629135.242608</v>
+        <v>2960662754.862119</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1403904958251322</v>
+        <v>0.1058069798980562</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02823916997638185</v>
+        <v>0.02617034273636366</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4384610164.450378</v>
+        <v>3189154770.291094</v>
       </c>
       <c r="F100" t="n">
-        <v>0.122342226361216</v>
+        <v>0.1092574337730649</v>
       </c>
       <c r="G100" t="n">
-        <v>0.024881232876031</v>
+        <v>0.02593742871386706</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>97</v>
+      </c>
+      <c r="J100" t="n">
+        <v>230</v>
+      </c>
+      <c r="K100" t="n">
+        <v>68.53293103221363</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2274370472.103096</v>
+        <v>2761034861.930872</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1388319460817695</v>
+        <v>0.1794072152565021</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04305872237738469</v>
+        <v>0.05504011100333139</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
